--- a/data_xlsx/伦敦现货黄金_以美元计价.xlsx
+++ b/data_xlsx/伦敦现货黄金_以美元计价.xlsx
@@ -27386,8 +27386,144 @@
         <v>1933.95</v>
       </c>
     </row>
+    <row r="3414">
+      <c r="A3414" s="1" t="n">
+        <v>45119.0</v>
+      </c>
+      <c r="B3414" s="2" t="n">
+        <v>1953.3</v>
+      </c>
+    </row>
     <row r="3415">
-      <c r="A3415" s="3" t="inlineStr">
+      <c r="A3415" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B3415" s="2" t="n">
+        <v>1958.05</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B3416" s="2" t="n">
+        <v>1953.7</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B3417" s="2" t="n">
+        <v>1949.6</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B3418" s="2" t="n">
+        <v>1975.0</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B3419" s="2" t="n">
+        <v>1975.35</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="1" t="n">
+        <v>45127.0</v>
+      </c>
+      <c r="B3420" s="2" t="n">
+        <v>1976.1</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="1" t="n">
+        <v>45128.0</v>
+      </c>
+      <c r="B3421" s="2" t="n">
+        <v>1960.6</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="1" t="n">
+        <v>45131.0</v>
+      </c>
+      <c r="B3422" s="2" t="n">
+        <v>1960.0</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B3423" s="2" t="n">
+        <v>1958.7</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3424" s="2" t="n">
+        <v>1966.3</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3425" s="2" t="n">
+        <v>1945.35</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3426" s="2" t="n">
+        <v>1954.25</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3427" s="2" t="n">
+        <v>1970.65</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3428" s="2" t="n">
+        <v>1947.2</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3429" s="2" t="n">
+        <v>1944.2</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3430" s="2" t="n">
+        <v>1935.65</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
